--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/KPIT Technologies Ltd/Pruned_Excel/Semi_Final/KPIT Technologies Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/KPIT Technologies Ltd/Pruned_Excel/Semi_Final/KPIT Technologies Ltd_Semi_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>Balance Sheet of KPIT Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,21 +62,6 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
     <t>Cash Flow of KPIT Technologies(in Rs. Cr.)</t>
   </si>
   <si>
@@ -170,6 +158,9 @@
     <t>Quarterly Results of KPIT Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -224,79 +215,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of KPIT Technologies(in Rs. Cr.)</t>
@@ -708,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,209 +682,227 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2020</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>268.88</v>
-      </c>
-      <c r="C2">
-        <v>755.86</v>
       </c>
       <c r="D2">
         <v>755.86</v>
       </c>
       <c r="E2">
+        <v>755.86</v>
+      </c>
+      <c r="F2">
         <v>1024.74</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>142.7</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>209.53</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1325.33</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>302.48</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>352.32</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>883.73</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>441.59</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1325.33</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>269.04</v>
-      </c>
-      <c r="C3">
-        <v>779.22</v>
       </c>
       <c r="D3">
         <v>779.22</v>
       </c>
       <c r="E3">
+        <v>779.22</v>
+      </c>
+      <c r="F3">
         <v>1048.27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>135.53</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>200.49</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1319.76</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>253.32</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>291.33</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>634.6900000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>685.0700000000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1319.76</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>270.02</v>
-      </c>
-      <c r="C4">
-        <v>948.83</v>
       </c>
       <c r="D4">
         <v>948.83</v>
       </c>
       <c r="E4">
+        <v>948.83</v>
+      </c>
+      <c r="F4">
         <v>1218.84</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>246.76</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>344.86</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1724.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>275.06</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>299.84</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>858.98</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>865.22</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1724.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>270.35</v>
-      </c>
-      <c r="C5">
-        <v>1113.38</v>
       </c>
       <c r="D5">
         <v>1113.38</v>
       </c>
       <c r="E5">
+        <v>1113.38</v>
+      </c>
+      <c r="F5">
         <v>1383.73</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>274.4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>353.22</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1821.35</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>255.29</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>311.89</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1223.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>597.85</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1821.35</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>271.22</v>
-      </c>
-      <c r="C6">
-        <v>1330.83</v>
       </c>
       <c r="D6">
         <v>1330.83</v>
       </c>
       <c r="E6">
+        <v>1330.83</v>
+      </c>
+      <c r="F6">
         <v>1602.05</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>335.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>458.28</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2152.66</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>280.97</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>312.03</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1389.98</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>762.67</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2152.66</v>
       </c>
     </row>
@@ -967,183 +913,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>178.45</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>243.84</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-80.33</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-158.89</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.89</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.51</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>38.99</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>45.51</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>93.53</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>417.8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-362.74</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-77.79000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.55</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-24.28</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>68.09999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>43.83</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>238.12</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>291.73</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-197.28</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-92.14</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.27</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>43.83</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>45.86</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>280.16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>203.91</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-45.69</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-131.89</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.89</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25.45</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>45.86</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>71.31</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>438.05</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>512.3200000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-331.23</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-154.62</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.05</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>28.52</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>71.31</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>99.81999999999999</v>
       </c>
     </row>
@@ -1154,86 +1118,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>955.25</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>955.25</v>
@@ -1242,46 +1209,46 @@
         <v>955.25</v>
       </c>
       <c r="E2">
+        <v>955.25</v>
+      </c>
+      <c r="F2">
         <v>23.19</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>978.4400000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>532.49</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>15.11</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>83.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>145.97</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>777.4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>201.04</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>197.38</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>46.9</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-27.97</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>18.93</v>
-      </c>
-      <c r="R2">
-        <v>178.45</v>
       </c>
       <c r="S2">
         <v>178.45</v>
@@ -1290,18 +1257,21 @@
         <v>178.45</v>
       </c>
       <c r="U2">
+        <v>178.45</v>
+      </c>
+      <c r="V2">
         <v>6.64</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6.62</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
-        <v>802.85</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>802.85</v>
@@ -1310,46 +1280,46 @@
         <v>802.85</v>
       </c>
       <c r="E3">
+        <v>802.85</v>
+      </c>
+      <c r="F3">
         <v>17.59</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>820.4400000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>487.57</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.640000000000001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>91.11</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>136.92</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>724.29</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>96.15000000000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>99.34999999999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>19.35</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-13.53</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5.83</v>
-      </c>
-      <c r="R3">
-        <v>93.53</v>
       </c>
       <c r="S3">
         <v>93.53</v>
@@ -1358,18 +1328,21 @@
         <v>93.53</v>
       </c>
       <c r="U3">
+        <v>93.53</v>
+      </c>
+      <c r="V3">
         <v>3.48</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3.46</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
-        <v>1180.99</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1180.99</v>
@@ -1378,46 +1351,46 @@
         <v>1180.99</v>
       </c>
       <c r="E4">
+        <v>1180.99</v>
+      </c>
+      <c r="F4">
         <v>77.27</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1258.26</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>704.8099999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10.86</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>81.58</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>184.45</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>981.6900000000001</v>
-      </c>
-      <c r="M4">
-        <v>276.57</v>
       </c>
       <c r="N4">
         <v>276.57</v>
       </c>
       <c r="O4">
+        <v>276.57</v>
+      </c>
+      <c r="P4">
         <v>51.15</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-12.7</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>38.45</v>
-      </c>
-      <c r="R4">
-        <v>238.12</v>
       </c>
       <c r="S4">
         <v>238.12</v>
@@ -1426,66 +1399,69 @@
         <v>238.12</v>
       </c>
       <c r="U4">
+        <v>238.12</v>
+      </c>
+      <c r="V4">
         <v>8.83</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8.73</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
-        <v>1514.8</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1514.8</v>
       </c>
       <c r="D5">
+        <v>1514.8</v>
+      </c>
+      <c r="E5">
         <v>1516.43</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>42.36</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1558.79</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>887.33</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14.68</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>90.52</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>200.7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1193.23</v>
-      </c>
-      <c r="M5">
-        <v>365.55</v>
       </c>
       <c r="N5">
         <v>365.55</v>
       </c>
       <c r="O5">
+        <v>365.55</v>
+      </c>
+      <c r="P5">
         <v>85.77</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-0.38</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>85.39</v>
-      </c>
-      <c r="R5">
-        <v>280.16</v>
       </c>
       <c r="S5">
         <v>280.16</v>
@@ -1494,18 +1470,21 @@
         <v>280.16</v>
       </c>
       <c r="U5">
+        <v>280.16</v>
+      </c>
+      <c r="V5">
         <v>10.37</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>10.26</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
-        <v>2016.6</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2016.6</v>
@@ -1514,46 +1493,46 @@
         <v>2016.6</v>
       </c>
       <c r="E6">
+        <v>2016.6</v>
+      </c>
+      <c r="F6">
         <v>68.61</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2085.22</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1241.11</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14.55</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>102.85</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>288.65</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1647.17</v>
-      </c>
-      <c r="M6">
-        <v>438.05</v>
       </c>
       <c r="N6">
         <v>438.05</v>
       </c>
       <c r="O6">
+        <v>438.05</v>
+      </c>
+      <c r="P6">
         <v>108.53</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2.69</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>111.22</v>
-      </c>
-      <c r="R6">
-        <v>326.83</v>
       </c>
       <c r="S6">
         <v>326.83</v>
@@ -1562,9 +1541,12 @@
         <v>326.83</v>
       </c>
       <c r="U6">
+        <v>326.83</v>
+      </c>
+      <c r="V6">
         <v>12.06</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11.97</v>
       </c>
     </row>
@@ -1575,131 +1557,137 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
         <v>387.802</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>387.802</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>222.888</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>24.047</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>52.785</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>88.06699999999999</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>14.317</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>102.378</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>3.052</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>99.33</v>
       </c>
-      <c r="L2">
-        <v>3.2</v>
-      </c>
-      <c r="M2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>99.863</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>20.268</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>79.593</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>79.593</v>
-      </c>
-      <c r="Q2">
-        <v>0.1</v>
-      </c>
-      <c r="R2">
-        <v>0.1</v>
       </c>
       <c r="S2">
         <v>0.1</v>
@@ -1710,64 +1698,70 @@
       <c r="U2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>69</v>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2018</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>326.936</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>326.936</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>203.056</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>23.144</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.22</v>
-      </c>
-      <c r="G3">
-        <v>-0.22</v>
-      </c>
-      <c r="H3">
-        <v>14.87</v>
       </c>
       <c r="I3">
         <v>-0.22</v>
       </c>
       <c r="J3">
+        <v>14.87</v>
+      </c>
+      <c r="K3">
+        <v>-0.22</v>
+      </c>
+      <c r="L3">
         <v>2.13</v>
-      </c>
-      <c r="K3">
-        <v>-2.35</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>-2.35</v>
       </c>
       <c r="N3">
-        <v>13.334</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>-2.35</v>
       </c>
       <c r="P3">
+        <v>13.334</v>
+      </c>
+      <c r="Q3">
         <v>-2.35</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>-2.35</v>
+      </c>
+      <c r="S3">
         <v>0.1</v>
-      </c>
-      <c r="R3">
-        <v>-234.9</v>
-      </c>
-      <c r="S3">
-        <v>-234.9</v>
       </c>
       <c r="T3">
         <v>-234.9</v>
@@ -1775,64 +1769,70 @@
       <c r="U3">
         <v>-234.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>70</v>
+      <c r="V3">
+        <v>-234.9</v>
+      </c>
+      <c r="W3">
+        <v>-234.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2019</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>230.3</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>230.3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>104.07</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>15.77</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>48.08</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>62.15</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>35.77</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>97.92</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>3.99</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>93.92</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-10.14</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>83.78</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>6.98</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>76.81</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>76.81</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>268.5</v>
-      </c>
-      <c r="R4">
-        <v>2.86</v>
-      </c>
-      <c r="S4">
-        <v>2.85</v>
       </c>
       <c r="T4">
         <v>2.86</v>
@@ -1840,64 +1840,70 @@
       <c r="U4">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>71</v>
+      <c r="V4">
+        <v>2.86</v>
+      </c>
+      <c r="W4">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2019</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
         <v>208.26</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>208.26</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>103.24</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>18.87</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>47.25</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>38.88</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.52</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>39.4</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>3.42</v>
-      </c>
-      <c r="K5">
-        <v>35.98</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>35.98</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>35.98</v>
+      </c>
+      <c r="P5">
         <v>4.59</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>31.39</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>31.39</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>268.5</v>
-      </c>
-      <c r="R5">
-        <v>1.17</v>
-      </c>
-      <c r="S5">
-        <v>1.16</v>
       </c>
       <c r="T5">
         <v>1.17</v>
@@ -1905,64 +1911,70 @@
       <c r="U5">
         <v>1.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>72</v>
+      <c r="V5">
+        <v>1.17</v>
+      </c>
+      <c r="W5">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2019</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>299.93</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>299.93</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>141.43</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>21.28</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>45.22</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>91.92</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>3.06</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>94.97</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>4.77</v>
-      </c>
-      <c r="K6">
-        <v>90.20999999999999</v>
-      </c>
-      <c r="L6">
-        <v>3.2</v>
       </c>
       <c r="M6">
         <v>90.20999999999999</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>90.20999999999999</v>
+      </c>
+      <c r="P6">
         <v>4.37</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>85.84</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>85.84</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>268.5</v>
-      </c>
-      <c r="R6">
-        <v>3.2</v>
-      </c>
-      <c r="S6">
-        <v>3.18</v>
       </c>
       <c r="T6">
         <v>3.2</v>
@@ -1970,64 +1982,70 @@
       <c r="U6">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>73</v>
+      <c r="V6">
+        <v>3.2</v>
+      </c>
+      <c r="W6">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2019</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
         <v>229.28</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>229.28</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>144.54</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>21.75</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>27.74</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>35.23</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>9.9</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>45.13</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>2.89</v>
-      </c>
-      <c r="K7">
-        <v>42.24</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>42.24</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>42.24</v>
+      </c>
+      <c r="P7">
         <v>7.87</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>34.38</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>34.38</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>268.74</v>
-      </c>
-      <c r="R7">
-        <v>1.28</v>
-      </c>
-      <c r="S7">
-        <v>1.28</v>
       </c>
       <c r="T7">
         <v>1.28</v>
@@ -2035,64 +2053,70 @@
       <c r="U7">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>74</v>
+      <c r="V7">
+        <v>1.28</v>
+      </c>
+      <c r="W7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2020</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
         <v>217.78</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>217.78</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>143.29</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>21.8</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>31.07</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>21.63</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>15.01</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>36.64</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>4.03</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>32.61</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-3.66</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>28.95</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>2.1</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>26.85</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>26.85</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>268.88</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2100,64 +2124,70 @@
       <c r="U8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>75</v>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2020</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
         <v>178.06</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>178.06</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>109.35</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>22.78</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>26.82</v>
-      </c>
-      <c r="G9">
-        <v>19.11</v>
-      </c>
-      <c r="H9">
-        <v>6.762</v>
       </c>
       <c r="I9">
         <v>19.11</v>
       </c>
       <c r="J9">
+        <v>6.762</v>
+      </c>
+      <c r="K9">
+        <v>19.11</v>
+      </c>
+      <c r="L9">
         <v>3.07</v>
-      </c>
-      <c r="K9">
-        <v>16.03</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>16.03</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>16.03</v>
+      </c>
+      <c r="P9">
         <v>1.45</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>14.58</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>14.58</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>268.9</v>
-      </c>
-      <c r="R9">
-        <v>0.54</v>
-      </c>
-      <c r="S9">
-        <v>0.54</v>
       </c>
       <c r="T9">
         <v>0.54</v>
@@ -2165,64 +2195,70 @@
       <c r="U9">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>76</v>
+      <c r="V9">
+        <v>0.54</v>
+      </c>
+      <c r="W9">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2020</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>190.68</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>190.68</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>109.02</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>23.94</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>32.66</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>25.06</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>2.67</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>27.73</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>2.13</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>25.6</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>3.2</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>28.8</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>1.9</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>26.9</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>26.9</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>268.96</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -2230,64 +2266,70 @@
       <c r="U10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>77</v>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>198.25</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>198.25</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>131.91</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>22.79</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>24.88</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>18.67</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>10.46</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>29.13</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>1.62</v>
-      </c>
-      <c r="K11">
-        <v>27.52</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>27.52</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>27.52</v>
+      </c>
+      <c r="P11">
         <v>2.6</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>24.92</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>24.92</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>268.99</v>
-      </c>
-      <c r="R11">
-        <v>0.93</v>
-      </c>
-      <c r="S11">
-        <v>0.92</v>
       </c>
       <c r="T11">
         <v>0.93</v>
@@ -2295,64 +2337,70 @@
       <c r="U11">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>78</v>
+      <c r="V11">
+        <v>0.93</v>
+      </c>
+      <c r="W11">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
         <v>237.27</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>237.27</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>136.24</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>21.01</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>37.08</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>42.93</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>5.92</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>48.85</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1.78</v>
-      </c>
-      <c r="K12">
-        <v>47.07</v>
-      </c>
-      <c r="L12">
-        <v>-6.9</v>
       </c>
       <c r="M12">
         <v>47.07</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>47.07</v>
+      </c>
+      <c r="P12">
         <v>5.58</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>41.49</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>41.49</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>269.04</v>
-      </c>
-      <c r="R12">
-        <v>1.54</v>
-      </c>
-      <c r="S12">
-        <v>1.53</v>
       </c>
       <c r="T12">
         <v>1.54</v>
@@ -2360,64 +2408,70 @@
       <c r="U12">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>79</v>
+      <c r="V12">
+        <v>1.54</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2021</v>
       </c>
       <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
         <v>253.39</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>253.39</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>151.76</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>19.61</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>30.48</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>51.54</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>13.27</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>64.81</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>1.64</v>
-      </c>
-      <c r="K13">
-        <v>63.17</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
       <c r="M13">
         <v>63.17</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>63.17</v>
+      </c>
+      <c r="P13">
         <v>10.83</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>52.35</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>52.35</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>269.15</v>
-      </c>
-      <c r="R13">
-        <v>1.95</v>
-      </c>
-      <c r="S13">
-        <v>1.92</v>
       </c>
       <c r="T13">
         <v>1.95</v>
@@ -2425,64 +2479,70 @@
       <c r="U13">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>80</v>
+      <c r="V13">
+        <v>1.95</v>
+      </c>
+      <c r="W13">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2021</v>
       </c>
       <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
         <v>290.5</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>290.5</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>177.75</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>20.08</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>38.76</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>53.9</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>11.79</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>65.68000000000001</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>1.7</v>
-      </c>
-      <c r="K14">
-        <v>63.99</v>
-      </c>
-      <c r="L14">
-        <v>3.2</v>
       </c>
       <c r="M14">
         <v>63.99</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>63.99</v>
+      </c>
+      <c r="P14">
         <v>11.55</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>52.43</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>52.43</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>269.62</v>
-      </c>
-      <c r="R14">
-        <v>1.95</v>
-      </c>
-      <c r="S14">
-        <v>1.92</v>
       </c>
       <c r="T14">
         <v>1.95</v>
@@ -2490,64 +2550,70 @@
       <c r="U14">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>81</v>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2021</v>
       </c>
       <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
         <v>305.19</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>305.19</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>178.7</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>21.06</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>55.97</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>49.45</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>10.8</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>60.26</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>2.1</v>
-      </c>
-      <c r="K15">
-        <v>58.15</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>58.15</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>58.15</v>
+      </c>
+      <c r="P15">
         <v>11.03</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>47.12</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>47.12</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>269.86</v>
-      </c>
-      <c r="R15">
-        <v>1.75</v>
-      </c>
-      <c r="S15">
-        <v>1.73</v>
       </c>
       <c r="T15">
         <v>1.75</v>
@@ -2555,64 +2621,70 @@
       <c r="U15">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>82</v>
+      <c r="V15">
+        <v>1.75</v>
+      </c>
+      <c r="W15">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2022</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>331.92</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>331.92</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>196.6</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>20.82</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>59.24</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>55.26</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>41.42</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>96.68000000000001</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>5.42</v>
-      </c>
-      <c r="K16">
-        <v>91.26000000000001</v>
-      </c>
-      <c r="L16">
-        <v>-6.9</v>
       </c>
       <c r="M16">
         <v>91.26000000000001</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="P16">
         <v>5.04</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>86.23</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>86.23</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>270.02</v>
-      </c>
-      <c r="R16">
-        <v>3.19</v>
-      </c>
-      <c r="S16">
-        <v>3.16</v>
       </c>
       <c r="T16">
         <v>3.19</v>
@@ -2620,64 +2692,70 @@
       <c r="U16">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>83</v>
+      <c r="V16">
+        <v>3.19</v>
+      </c>
+      <c r="W16">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2022</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
         <v>354.79</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>354.79</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>198.75</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>21.24</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>47.15</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>87.66</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>11.36</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>99.02</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>3.96</v>
-      </c>
-      <c r="K17">
-        <v>95.06</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
       </c>
       <c r="M17">
         <v>95.06</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>95.06</v>
+      </c>
+      <c r="P17">
         <v>21.37</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>73.68000000000001</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>73.68000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>270.1</v>
-      </c>
-      <c r="R17">
-        <v>2.73</v>
-      </c>
-      <c r="S17">
-        <v>2.7</v>
       </c>
       <c r="T17">
         <v>2.73</v>
@@ -2685,64 +2763,70 @@
       <c r="U17">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>84</v>
+      <c r="V17">
+        <v>2.73</v>
+      </c>
+      <c r="W17">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2022</v>
       </c>
       <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
         <v>357.57</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>357.57</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>216.59</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>23.01</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>35.72</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>82.25</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>8.619999999999999</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>90.87</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>3.85</v>
-      </c>
-      <c r="K18">
-        <v>87.02</v>
-      </c>
-      <c r="L18">
-        <v>3.2</v>
       </c>
       <c r="M18">
         <v>87.02</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>87.02</v>
+      </c>
+      <c r="P18">
         <v>21.2</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>65.81999999999999</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>65.81999999999999</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>269.95</v>
-      </c>
-      <c r="R18">
-        <v>2.44</v>
-      </c>
-      <c r="S18">
-        <v>2.41</v>
       </c>
       <c r="T18">
         <v>2.44</v>
@@ -2750,64 +2834,70 @@
       <c r="U18">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>85</v>
+      <c r="V18">
+        <v>2.44</v>
+      </c>
+      <c r="W18">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
         <v>379.94</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>379.94</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>229.52</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>23.97</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>58.63</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>67.81999999999999</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>21.54</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>89.36</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>3.75</v>
-      </c>
-      <c r="K19">
-        <v>85.61</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
       </c>
       <c r="M19">
         <v>85.61</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>85.61</v>
+      </c>
+      <c r="P19">
         <v>19.15</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>66.45</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>66.45</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>270.16</v>
-      </c>
-      <c r="R19">
-        <v>2.46</v>
-      </c>
-      <c r="S19">
-        <v>2.43</v>
       </c>
       <c r="T19">
         <v>2.46</v>
@@ -2815,64 +2905,70 @@
       <c r="U19">
         <v>2.43</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>86</v>
+      <c r="V19">
+        <v>2.46</v>
+      </c>
+      <c r="W19">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
         <v>424.13</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>424.13</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>242.47</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>22.31</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>62.48</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>96.87</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>4.12</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>100.98</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>3.11</v>
-      </c>
-      <c r="K20">
-        <v>97.87</v>
-      </c>
-      <c r="L20">
-        <v>-6.9</v>
       </c>
       <c r="M20">
         <v>97.87</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>97.87</v>
+      </c>
+      <c r="P20">
         <v>23.67</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>74.20999999999999</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>74.20999999999999</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>270.35</v>
-      </c>
-      <c r="R20">
-        <v>2.75</v>
-      </c>
-      <c r="S20">
-        <v>2.72</v>
       </c>
       <c r="T20">
         <v>2.75</v>
@@ -2880,64 +2976,70 @@
       <c r="U20">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>87</v>
+      <c r="V20">
+        <v>2.75</v>
+      </c>
+      <c r="W20">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2023</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
         <v>444.96</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>444.96</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>267.4</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>22.87</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>53.64</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>101.04</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>2.34</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>103.38</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>3.81</v>
-      </c>
-      <c r="K21">
-        <v>99.56999999999999</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
       </c>
       <c r="M21">
         <v>99.56999999999999</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="P21">
         <v>22.91</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>76.66</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>76.66</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>270.6</v>
-      </c>
-      <c r="R21">
-        <v>2.83</v>
-      </c>
-      <c r="S21">
-        <v>2.81</v>
       </c>
       <c r="T21">
         <v>2.83</v>
@@ -2945,64 +3047,70 @@
       <c r="U21">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="V21">
+        <v>2.83</v>
+      </c>
+      <c r="W21">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2023</v>
       </c>
       <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
         <v>503.41</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>503.41</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>299.43</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>25.44</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>69.81</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>108.74</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>5.95</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>114.68</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>3.71</v>
-      </c>
-      <c r="K22">
-        <v>110.97</v>
-      </c>
-      <c r="L22">
-        <v>3.2</v>
       </c>
       <c r="M22">
         <v>110.97</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>110.97</v>
+      </c>
+      <c r="P22">
         <v>26.62</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>84.34999999999999</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>84.34999999999999</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>271.01</v>
-      </c>
-      <c r="R22">
-        <v>3.11</v>
-      </c>
-      <c r="S22">
-        <v>3.09</v>
       </c>
       <c r="T22">
         <v>3.11</v>
@@ -3010,64 +3118,70 @@
       <c r="U22">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>89</v>
+      <c r="V22">
+        <v>3.11</v>
+      </c>
+      <c r="W22">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2023</v>
       </c>
       <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
         <v>522.02</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>522.02</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>330.61</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>26.15</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>72.31999999999999</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>92.95</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>21.65</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>114.6</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>4.47</v>
-      </c>
-      <c r="K23">
-        <v>110.13</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
       </c>
       <c r="M23">
         <v>110.13</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>110.13</v>
+      </c>
+      <c r="P23">
         <v>26.02</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>84.11</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>84.11</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>271.13</v>
-      </c>
-      <c r="R23">
-        <v>3.1</v>
-      </c>
-      <c r="S23">
-        <v>3.08</v>
       </c>
       <c r="T23">
         <v>3.1</v>
@@ -3075,64 +3189,70 @@
       <c r="U23">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>90</v>
+      <c r="V23">
+        <v>3.1</v>
+      </c>
+      <c r="W23">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2024</v>
       </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
         <v>546.22</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>546.22</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>343.68</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>28.39</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>102.02</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>72.13</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>47.81</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>119.93</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>2.56</v>
-      </c>
-      <c r="K24">
-        <v>117.38</v>
-      </c>
-      <c r="L24">
-        <v>-6.9</v>
       </c>
       <c r="M24">
         <v>117.38</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>117.38</v>
+      </c>
+      <c r="P24">
         <v>35.67</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>81.70999999999999</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>81.70999999999999</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>271.22</v>
-      </c>
-      <c r="R24">
-        <v>3.01</v>
-      </c>
-      <c r="S24">
-        <v>2.99</v>
       </c>
       <c r="T24">
         <v>3.01</v>
@@ -3140,64 +3260,70 @@
       <c r="U24">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>91</v>
+      <c r="V24">
+        <v>3.01</v>
+      </c>
+      <c r="W24">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2024</v>
       </c>
       <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
         <v>568.4400000000001</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>568.4400000000001</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>361.45</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>28.79</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>81.90000000000001</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>96.23999999999999</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>6.32</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>102.57</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>4.15</v>
-      </c>
-      <c r="K25">
-        <v>98.41</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
       </c>
       <c r="M25">
         <v>98.41</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>98.41</v>
+      </c>
+      <c r="P25">
         <v>23.13</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>75.29000000000001</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>75.29000000000001</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>271.35</v>
-      </c>
-      <c r="R25">
-        <v>2.78</v>
-      </c>
-      <c r="S25">
-        <v>2.76</v>
       </c>
       <c r="T25">
         <v>2.78</v>
@@ -3205,69 +3331,81 @@
       <c r="U25">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>92</v>
+      <c r="V25">
+        <v>2.78</v>
+      </c>
+      <c r="W25">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>2024</v>
       </c>
       <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
         <v>684.72</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>684.72</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>393.11</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>30.53</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>94.54000000000001</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>166.53</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>53.81</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>220.34</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>2.15</v>
-      </c>
-      <c r="K26">
-        <v>218.19</v>
-      </c>
-      <c r="L26">
-        <v>3.2</v>
       </c>
       <c r="M26">
         <v>218.19</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>218.19</v>
+      </c>
+      <c r="P26">
         <v>55.97</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>162.22</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>162.22</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>271.49</v>
-      </c>
-      <c r="R26">
-        <v>5.98</v>
-      </c>
-      <c r="S26">
-        <v>5.93</v>
       </c>
       <c r="T26">
         <v>5.98</v>
       </c>
       <c r="U26">
+        <v>5.93</v>
+      </c>
+      <c r="V26">
+        <v>5.98</v>
+      </c>
+      <c r="W26">
         <v>5.93</v>
       </c>
     </row>
@@ -3278,345 +3416,363 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>35.53</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11.15</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.039999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.34</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.64</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.62</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20.66</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>18.68</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17.41</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13.46</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.02</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>26.35</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>17.93</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>73.65000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>924.36</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3.08</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>29.84</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.28</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.89</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.69</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.48</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>24.4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13.05</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12.37</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11.64</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8.92</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.08</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>32.17</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>23.778</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>67.83</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4455.81</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>22.75</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>43.74</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>13.67</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10.64</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10.24</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8.82</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>24.33</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23.41</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20.16</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>19.53</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>13.81</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>31.13</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>23.18</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>68.87</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15781.11</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>42.77</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>56.09</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>17.41</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>14.06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13.52</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10.36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.04</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>25.07</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>24.1</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>18.47</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>20.24</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>15.38</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>31.82</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24.05</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>68.18000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>24912.65</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>52.92</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>74.34999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20.48</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>16.69</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>16.15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12.05</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27.54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22.44</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>21.72</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20.4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15.18</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>39.38</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>29.95</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>60.62</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>40187.55</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>72.34999999999999</v>
       </c>
     </row>
